--- a/DEBIT_BOOK_backup_1906_2024.xlsx
+++ b/DEBIT_BOOK_backup_1906_2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="CÔ DIỄM" sheetId="1" r:id="rId1"/>
@@ -831,9 +831,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -841,6 +838,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1147,11 +1147,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K184"/>
+  <dimension ref="A1:M184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K67" sqref="K67"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,7 +1168,7 @@
     <col min="12" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1181,13 +1181,13 @@
       <c r="D1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="19"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>11</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H4" s="16" t="s">
         <v>168</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H5" s="16" t="s">
         <v>197</v>
       </c>
@@ -1247,11 +1247,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>14560</v>
       </c>
       <c r="D6" s="4">
@@ -1265,7 +1265,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H9" s="16" t="s">
         <v>41</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H10" s="16" t="s">
         <v>84</v>
       </c>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H11" s="16" t="s">
         <v>96</v>
       </c>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H12" s="16" t="s">
         <v>127</v>
       </c>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H13" s="16" t="s">
         <v>133</v>
       </c>
@@ -1344,8 +1344,12 @@
         <v>10</v>
       </c>
       <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M13" s="6">
+        <f>SUM(I3,I6,I7,I8,I20,I21,I32,I34,I37)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H14" s="16" t="s">
         <v>142</v>
       </c>
@@ -1354,7 +1358,7 @@
       </c>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H15" s="16" t="s">
         <v>177</v>
       </c>
@@ -1363,7 +1367,7 @@
       </c>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H16" s="16" t="s">
         <v>200</v>
       </c>
@@ -1605,7 +1609,7 @@
       <c r="B37" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="20">
         <v>4400</v>
       </c>
       <c r="D37" s="4">
@@ -1643,7 +1647,7 @@
       <c r="B39" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="20">
         <v>1600</v>
       </c>
       <c r="D39" s="4">
@@ -1747,7 +1751,7 @@
       <c r="B44" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="19">
         <v>4960</v>
       </c>
       <c r="D44" s="4">
@@ -1807,7 +1811,7 @@
       <c r="B47" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="19">
         <v>7640</v>
       </c>
       <c r="D47" s="4">
@@ -1865,7 +1869,7 @@
       <c r="B51" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="19">
         <v>800</v>
       </c>
       <c r="D51" s="4">
@@ -1910,7 +1914,7 @@
       <c r="B54" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C54" s="20">
         <v>4000</v>
       </c>
       <c r="D54" s="4">
@@ -1949,7 +1953,7 @@
       <c r="B57" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C57" s="19">
         <v>900</v>
       </c>
       <c r="D57" s="4">
@@ -2003,7 +2007,7 @@
       <c r="B61" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C61" s="20">
+      <c r="C61" s="19">
         <v>700</v>
       </c>
       <c r="D61" s="4">
@@ -2030,7 +2034,7 @@
       <c r="B63" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C63" s="19">
         <v>600</v>
       </c>
       <c r="D63" s="4">
@@ -2061,7 +2065,7 @@
       <c r="B65" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C65" s="20">
+      <c r="C65" s="19">
         <f>700+5000+300+600+400+1000+800</f>
         <v>8800</v>
       </c>
@@ -2097,6 +2101,9 @@
         <f t="shared" si="4"/>
         <v>4890</v>
       </c>
+      <c r="K67" s="6">
+        <v>110000</v>
+      </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
@@ -2105,7 +2112,7 @@
       <c r="B68" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C68" s="20">
+      <c r="C68" s="19">
         <v>500</v>
       </c>
       <c r="D68" s="4">
@@ -2117,19 +2124,23 @@
       <c r="B69" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C69" s="20">
+      <c r="C69" s="19">
         <v>700</v>
       </c>
       <c r="D69" s="4">
         <f t="shared" si="5"/>
         <v>6090</v>
       </c>
+      <c r="K69" s="6">
+        <f>SUM(K66,K67)</f>
+        <v>210900</v>
+      </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B70" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C70" s="20">
+      <c r="C70" s="19">
         <v>1500</v>
       </c>
       <c r="D70" s="4">
@@ -2180,7 +2191,7 @@
       <c r="B74" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C74" s="20">
+      <c r="C74" s="19">
         <v>700</v>
       </c>
       <c r="D74" s="4">
@@ -2195,7 +2206,7 @@
       <c r="B75" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C75" s="20">
+      <c r="C75" s="19">
         <v>700</v>
       </c>
       <c r="D75" s="4">
@@ -2210,7 +2221,7 @@
       <c r="B76" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C76" s="20">
+      <c r="C76" s="19">
         <v>700</v>
       </c>
       <c r="D76" s="4">
@@ -2279,7 +2290,7 @@
       <c r="B81" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C81" s="20">
+      <c r="C81" s="19">
         <v>10000</v>
       </c>
       <c r="D81" s="4">
@@ -2303,7 +2314,7 @@
       <c r="B83" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C83" s="20">
+      <c r="C83" s="19">
         <v>1700</v>
       </c>
       <c r="D83" s="4">
@@ -2420,7 +2431,7 @@
       <c r="B92" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C92" s="20">
+      <c r="C92" s="19">
         <v>2000</v>
       </c>
       <c r="D92" s="4">
@@ -2456,7 +2467,7 @@
       <c r="B95" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C95" s="20">
+      <c r="C95" s="19">
         <v>400</v>
       </c>
       <c r="D95" s="4">
@@ -2528,7 +2539,7 @@
       <c r="B100" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C100" s="20">
+      <c r="C100" s="19">
         <v>800</v>
       </c>
       <c r="D100" s="4">
@@ -2543,7 +2554,7 @@
       <c r="B101" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C101" s="20">
+      <c r="C101" s="19">
         <v>5000</v>
       </c>
       <c r="D101" s="4">
@@ -2741,7 +2752,7 @@
       <c r="B116" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C116" s="20">
+      <c r="C116" s="19">
         <v>2000</v>
       </c>
       <c r="D116" s="4">
@@ -2852,7 +2863,7 @@
       <c r="B124" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C124" s="21">
+      <c r="C124" s="20">
         <v>5000</v>
       </c>
       <c r="D124" s="4">
@@ -2999,7 +3010,7 @@
       <c r="B135" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C135" s="20">
+      <c r="C135" s="19">
         <v>2000</v>
       </c>
       <c r="D135" s="4">
@@ -3038,7 +3049,7 @@
       <c r="B138" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C138" s="20">
+      <c r="C138" s="19">
         <v>2000</v>
       </c>
       <c r="D138" s="4">
@@ -3065,7 +3076,7 @@
       <c r="B140" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C140" s="20">
+      <c r="C140" s="19">
         <v>500</v>
       </c>
       <c r="D140" s="4">
@@ -3080,7 +3091,7 @@
       <c r="B141" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C141" s="20">
+      <c r="C141" s="19">
         <v>750</v>
       </c>
       <c r="D141" s="4">
@@ -3095,7 +3106,7 @@
       <c r="B142" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C142" s="20">
+      <c r="C142" s="19">
         <v>2000</v>
       </c>
       <c r="D142" s="4">
@@ -3131,7 +3142,7 @@
       <c r="B145" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C145" s="20">
+      <c r="C145" s="19">
         <v>350</v>
       </c>
       <c r="D145" s="4">
@@ -3146,7 +3157,7 @@
       <c r="B146" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C146" s="20">
+      <c r="C146" s="19">
         <v>300</v>
       </c>
       <c r="D146" s="4">
@@ -3161,7 +3172,7 @@
       <c r="B147" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C147" s="20">
+      <c r="C147" s="19">
         <v>3800</v>
       </c>
       <c r="D147" s="4">
@@ -3173,7 +3184,7 @@
       <c r="B148" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C148" s="20">
+      <c r="C148" s="19">
         <v>500</v>
       </c>
       <c r="D148" s="4">
@@ -3188,7 +3199,7 @@
       <c r="B149" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C149" s="20">
+      <c r="C149" s="19">
         <v>1300</v>
       </c>
       <c r="D149" s="4">
@@ -3257,7 +3268,7 @@
       <c r="B154" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C154" s="20">
+      <c r="C154" s="19">
         <v>500</v>
       </c>
       <c r="D154" s="4">
@@ -3326,7 +3337,7 @@
       <c r="B159" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C159" s="20">
+      <c r="C159" s="19">
         <v>2000</v>
       </c>
       <c r="D159" s="4">
@@ -3368,7 +3379,7 @@
       <c r="B162" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C162" s="20">
+      <c r="C162" s="19">
         <v>3000</v>
       </c>
       <c r="D162" s="4">
@@ -3392,7 +3403,7 @@
       <c r="B164" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C164" s="20">
+      <c r="C164" s="19">
         <v>500</v>
       </c>
       <c r="D164" s="4">
@@ -3407,7 +3418,7 @@
       <c r="B165" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C165" s="20">
+      <c r="C165" s="19">
         <v>5600</v>
       </c>
       <c r="D165" s="4">
@@ -3419,7 +3430,7 @@
       <c r="B166" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C166" s="20">
+      <c r="C166" s="19">
         <v>4700</v>
       </c>
       <c r="D166" s="4">
@@ -3434,7 +3445,7 @@
       <c r="B167" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C167" s="20">
+      <c r="C167" s="19">
         <v>1500</v>
       </c>
       <c r="D167" s="4">
@@ -3446,7 +3457,7 @@
       <c r="B168" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C168" s="20">
+      <c r="C168" s="19">
         <v>500</v>
       </c>
       <c r="D168" s="4">
@@ -3461,7 +3472,7 @@
       <c r="B169" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C169" s="20">
+      <c r="C169" s="19">
         <v>1000</v>
       </c>
       <c r="D169" s="4">
@@ -3476,7 +3487,7 @@
       <c r="B170" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C170" s="20">
+      <c r="C170" s="19">
         <v>1000</v>
       </c>
       <c r="D170" s="4">
@@ -3512,10 +3523,10 @@
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B173" s="22" t="s">
+      <c r="B173" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C173" s="21">
+      <c r="C173" s="20">
         <v>500</v>
       </c>
       <c r="D173" s="4">
@@ -3524,10 +3535,10 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B174" s="22" t="s">
+      <c r="B174" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C174" s="21">
+      <c r="C174" s="20">
         <v>500</v>
       </c>
       <c r="D174" s="4">
@@ -3724,10 +3735,10 @@
       <c r="E1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="19"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -3863,10 +3874,10 @@
       <c r="E1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="19"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -4089,10 +4100,10 @@
       <c r="E1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="19"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
